--- a/Report.xlsx
+++ b/Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -29,73 +29,19 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>19-06-2023 09:51:51 PM</t>
+    <t>21-Jan-2024 10:16:53 PM</t>
   </si>
   <si>
     <t>testCamper</t>
   </si>
   <si>
-    <t>19-06-2023 09:52:11 PM</t>
-  </si>
-  <si>
     <t>testMotorCycle</t>
   </si>
   <si>
-    <t>19-06-2023 09:52:31 PM</t>
-  </si>
-  <si>
     <t>testTruck</t>
   </si>
   <si>
-    <t>19-06-2023 09:52:50 PM</t>
-  </si>
-  <si>
-    <t>19-06-2023 09:53:12 PM</t>
-  </si>
-  <si>
-    <t>19-06-2023 09:53:33 PM</t>
-  </si>
-  <si>
-    <t>19-06-2023 09:53:55 PM</t>
-  </si>
-  <si>
-    <t>19-06-2023 09:54:16 PM</t>
-  </si>
-  <si>
-    <t>testDelete</t>
-  </si>
-  <si>
-    <t>19-06-2023 09:54:18 PM</t>
-  </si>
-  <si>
-    <t>testGetSingleShops</t>
-  </si>
-  <si>
-    <t>19-06-2023 09:54:19 PM</t>
-  </si>
-  <si>
-    <t>testNoBodyPost</t>
-  </si>
-  <si>
-    <t>testPost</t>
-  </si>
-  <si>
-    <t>testPostFromFile</t>
-  </si>
-  <si>
-    <t>19-06-2023 09:54:20 PM</t>
-  </si>
-  <si>
-    <t>testPostRandom</t>
-  </si>
-  <si>
-    <t>testPut</t>
-  </si>
-  <si>
-    <t>FAILURE</t>
-  </si>
-  <si>
-    <t>Report Generated Date : - 19-Jun-2023 09:54:21 PM</t>
+    <t>Report Generated Date : - 21-Jan-2024 10:18:16 PM</t>
   </si>
 </sst>
 </file>
@@ -118,7 +64,7 @@
       <color indexed="8"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +117,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true" applyAlignment="true">
       <alignment wrapText="true" horizontal="centerContinuous"/>
@@ -278,10 +218,6 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true" quotePrefix="false">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -291,20 +227,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.3359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.5546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.1015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.8671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -337,150 +273,29 @@
         <v>4</v>
       </c>
       <c r="C4" t="s" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s" s="7">
         <v>4</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="7">
         <v>4</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s" s="5">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -29,7 +29,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>21-Jan-2024 10:16:53 PM</t>
+    <t>06-Aug-2024 11:20:55 AM</t>
   </si>
   <si>
     <t>testCamper</t>
@@ -41,7 +41,7 @@
     <t>testTruck</t>
   </si>
   <si>
-    <t>Report Generated Date : - 21-Jan-2024 10:18:16 PM</t>
+    <t>Report Generated Date : - 06-Aug-2024 11:22:29 AM</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.1015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.8671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.5546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -29,7 +29,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>06-Aug-2024 11:20:55 AM</t>
+    <t>07-Aug-2024 08:19:55 AM</t>
   </si>
   <si>
     <t>testCamper</t>
@@ -41,7 +41,7 @@
     <t>testTruck</t>
   </si>
   <si>
-    <t>Report Generated Date : - 06-Aug-2024 11:22:29 AM</t>
+    <t>Report Generated Date : - 07-Aug-2024 08:22:05 AM</t>
   </si>
 </sst>
 </file>
